--- a/results/mp/logistic/corona/confidence/84/0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,15 +46,9 @@
     <t>forced</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -64,6 +58,9 @@
     <t>no</t>
   </si>
   <si>
+    <t>the</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -76,55 +73,61 @@
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>support</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>support</t>
+    <t>won</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>thank</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>relief</t>
@@ -133,12 +136,6 @@
     <t>save</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
@@ -157,10 +154,10 @@
     <t>share</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
     <t>care</t>
-  </si>
-  <si>
-    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
@@ -529,10 +526,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -590,13 +587,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.75</v>
+        <v>0.7397260273972602</v>
       </c>
       <c r="C3">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D3">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -608,19 +605,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -632,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -661,16 +658,16 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4">
-        <v>0.9166666666666666</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="L4">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M4">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -682,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -690,13 +687,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5526315789473685</v>
+        <v>0.4338624338624338</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -708,19 +705,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>0.8983050847457628</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -732,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -740,13 +737,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4074074074074074</v>
+        <v>0.3313953488372093</v>
       </c>
       <c r="C6">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="D6">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -758,19 +755,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>112</v>
+        <v>345</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K6">
-        <v>0.8839285714285714</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -782,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -790,13 +787,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3725490196078431</v>
+        <v>0.174496644295302</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -808,19 +805,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>0.8461538461538461</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -832,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -840,13 +837,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3294573643410852</v>
+        <v>0.1194444444444445</v>
       </c>
       <c r="C8">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="D8">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -858,19 +855,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K8">
-        <v>0.8407310704960835</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="L8">
-        <v>322</v>
+        <v>88</v>
       </c>
       <c r="M8">
-        <v>322</v>
+        <v>88</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -882,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -890,87 +887,63 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2416107382550336</v>
+        <v>0.004074505238649592</v>
       </c>
       <c r="C9">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>113</v>
+        <v>5133</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9">
+        <v>0.8224543080939948</v>
+      </c>
+      <c r="L9">
+        <v>315</v>
+      </c>
+      <c r="M9">
+        <v>315</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K9">
-        <v>0.8301886792452831</v>
-      </c>
-      <c r="L9">
-        <v>88</v>
-      </c>
-      <c r="M9">
-        <v>88</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.1166666666666667</v>
-      </c>
-      <c r="C10">
-        <v>42</v>
-      </c>
-      <c r="D10">
-        <v>42</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>318</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="K10">
-        <v>0.8292682926829268</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L10">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="M10">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -982,21 +955,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K11">
-        <v>0.8085106382978723</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L11">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="M11">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1008,21 +981,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K12">
-        <v>0.80625</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="L12">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="M12">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1034,21 +1007,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K13">
-        <v>0.7948717948717948</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L13">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M13">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1060,21 +1033,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14">
-        <v>0.7931034482758621</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L14">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M14">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1086,21 +1059,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.7878787878787878</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L15">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="M15">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1112,21 +1085,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.78125</v>
+        <v>0.7734375</v>
       </c>
       <c r="L16">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M16">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1138,21 +1111,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>0.7777777777777778</v>
+        <v>0.7625</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1164,21 +1137,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M18">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1190,21 +1163,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K19">
-        <v>0.7605633802816901</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L19">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="M19">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1216,21 +1189,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K20">
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L20">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M20">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1242,21 +1215,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K21">
-        <v>0.7407407407407407</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L21">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1268,21 +1241,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>0.6984126984126984</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L22">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="M22">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1294,21 +1267,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.68</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="L23">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M23">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1320,21 +1293,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.6571428571428571</v>
+        <v>0.6235294117647059</v>
       </c>
       <c r="L24">
-        <v>23</v>
+        <v>212</v>
       </c>
       <c r="M24">
-        <v>23</v>
+        <v>212</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1346,21 +1319,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K25">
-        <v>0.6147058823529412</v>
+        <v>0.62</v>
       </c>
       <c r="L25">
-        <v>209</v>
+        <v>31</v>
       </c>
       <c r="M25">
-        <v>209</v>
+        <v>31</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1372,21 +1345,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>131</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>0.6046511627906976</v>
+        <v>0.6</v>
       </c>
       <c r="L26">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M26">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1398,21 +1371,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>0.5983263598326359</v>
+        <v>0.5857740585774058</v>
       </c>
       <c r="L27">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M27">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1424,12 +1397,12 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K28">
         <v>0.575</v>
@@ -1455,16 +1428,16 @@
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>0.5728813559322034</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="L29">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M29">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1476,21 +1449,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>0.5638297872340425</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L30">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M30">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1502,21 +1475,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>0.5538461538461539</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L31">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M31">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1528,21 +1501,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>0.5142857142857142</v>
+        <v>0.5</v>
       </c>
       <c r="L32">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M32">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1554,21 +1527,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>0.4269662921348314</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L33">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M33">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1580,21 +1553,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>0.273972602739726</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L34">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M34">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1606,21 +1579,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K35">
-        <v>0.2692307692307692</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="L35">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M35">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1632,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
